--- a/biology/Microbiologie/Bigyromonadea/Bigyromonadea.xlsx
+++ b/biology/Microbiologie/Bigyromonadea/Bigyromonadea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bigyromonada
-Les Bigyromonadea (ou Bigyromonada) sont un clade d'eucaryotes unicellulaires hétérocontes. Il regroupe les Developea, des bactérivores et eucaryovores marins, et les Pirsonea, des parasites d'autres microbes. Les Bigyromonadea formeraient avec les Oomycètes un clade, dénommé Pseudofungi[1].
+Les Bigyromonadea (ou Bigyromonada) sont un clade d'eucaryotes unicellulaires hétérocontes. Il regroupe les Developea, des bactérivores et eucaryovores marins, et les Pirsonea, des parasites d'autres microbes. Les Bigyromonadea formeraient avec les Oomycètes un clade, dénommé Pseudofungi.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste des classes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon l'IRMNG  (4 décembre 2023)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon l'IRMNG  (4 décembre 2023) :
 Developea
 Pirsonea</t>
         </is>
